--- a/artfynd/A 18853-2023.xlsx
+++ b/artfynd/A 18853-2023.xlsx
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>522979.6386936844</v>
+        <v>522980</v>
       </c>
       <c r="R2" t="n">
-        <v>7077150.640766663</v>
+        <v>7077151</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -753,19 +753,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">

--- a/artfynd/A 18853-2023.xlsx
+++ b/artfynd/A 18853-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112194173</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>

--- a/artfynd/A 18853-2023.xlsx
+++ b/artfynd/A 18853-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112194173</v>
       </c>
       <c r="B2" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
